--- a/dataset/raw/ontimittaraguveera.xlsx
+++ b/dataset/raw/ontimittaraguveera.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bsnra\Desktop\chandassu\dataset\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01692D29-499F-40A4-800E-DA03F57D33E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39CE2DE-265E-453F-A3B7-E7D17D19B22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -607,12 +607,6 @@
 రసవాదంబులు నేర్చితౌర రఘువీరా! జానకీనాయకా!</t>
   </si>
   <si>
-    <t>పసులన్ గాచిన గొల్లవాఁడవనుచున్ భావింతు నిన్నున్ దుదిన్
-ముసలిభ్రాత వటంచు నెంతు మదిలో మూర్తిత్రయాకార! నే
-వసుధాధారుని నిన్ను నిక్క మెఱుఁగన్ వాంఛింతు నో సత్కృపా
-రసపాథోనిధి! కావవయ్య రఘువీరా! జానకీనాయకా! (గద్వాల ప్రతి)</t>
-  </si>
-  <si>
     <t>పిసినిం జూచి మహాప్రదాతయనుచున్ బీభత్సకుత్సాంగునిన్
 బ్రసవాస్త్ర ప్రతిమానరూపుఁడనుచున్ బందం బ్రియంబంద శ
 త్రుసమూహాంతకుఁ డంచు నెప్పుడు నరస్తోత్రంబు గావించు నీ
@@ -764,6 +758,12 @@
   </si>
   <si>
     <t>class</t>
+  </si>
+  <si>
+    <t>పసులన్ గాచిన గొల్లవాఁడవనుచున్ భావింతు నిన్నున్ దుదిన్
+ముసలిభ్రాత వటంచు నెంతు మదిలో మూర్తిత్రయాకార! నే
+వసుధాధారుని నిన్ను నిక్క మెఱుఁగన్ వాంఛింతు నో సత్కృపా
+రసపాథోనిధి! కావవయ్య రఘువీరా! జానకీనాయకా!</t>
   </si>
 </sst>
 </file>
@@ -1134,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -2480,7 +2480,7 @@
         <v>10</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2494,7 +2494,7 @@
         <v>10</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2508,7 +2508,7 @@
         <v>10</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2522,7 +2522,7 @@
         <v>3</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2536,7 +2536,7 @@
         <v>10</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2550,7 +2550,7 @@
         <v>10</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2564,7 +2564,7 @@
         <v>10</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2578,7 +2578,7 @@
         <v>10</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2592,7 +2592,7 @@
         <v>10</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2606,7 +2606,7 @@
         <v>10</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2620,7 +2620,7 @@
         <v>3</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2634,7 +2634,7 @@
         <v>10</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2648,7 +2648,7 @@
         <v>10</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2662,7 +2662,7 @@
         <v>10</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2676,7 +2676,7 @@
         <v>10</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2690,7 +2690,7 @@
         <v>3</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2704,7 +2704,7 @@
         <v>3</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2718,7 +2718,7 @@
         <v>3</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2732,7 +2732,7 @@
         <v>10</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2746,7 +2746,7 @@
         <v>10</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2760,7 +2760,7 @@
         <v>3</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2788,7 +2788,7 @@
         <v>10</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2802,7 +2802,7 @@
         <v>10</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2816,7 +2816,7 @@
         <v>10</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2830,7 +2830,7 @@
         <v>10</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
